--- a/Project-KTXForecasting/Result/Result_Stats_자문보고서(최종)_KK.xlsx
+++ b/Project-KTXForecasting/Result/Result_Stats_자문보고서(최종)_KK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\Project-KTXForecasting\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDFC3B0-4D71-4B56-9FA8-E2B74B1A6FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFD9BA1-5D0B-4B96-BEB5-51C5C0F5A4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="9" xr2:uid="{AC808E02-6729-4071-B5AC-204983E17A37}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{AC808E02-6729-4071-B5AC-204983E17A37}"/>
   </bookViews>
   <sheets>
     <sheet name="진행내용" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="240">
   <si>
     <t>전체주중주말</t>
   </si>
@@ -577,14 +577,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>과거 1개월~12개월 전 승차인원수 데이터를 변수로 생성</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -641,22 +633,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>데이터 종류</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>종속변수(Y)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>예측 대상인 승차인원수 변수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>독립변수(X)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>평균</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -852,10 +832,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>승차인원수에 영향을 줄거라 예상되는 변수 36종</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>RNN</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1046,6 +1022,26 @@
   </si>
   <si>
     <t>국가간 이동 제한정도 지수</t>
+  </si>
+  <si>
+    <t>예측 대상인 승차인원수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>독립변수(X) 36종</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 변수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 분리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1056,7 +1052,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.000"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="0.E+00"/>
+    <numFmt numFmtId="178" formatCode="0.E+00"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -1236,7 +1232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1397,6 +1393,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1409,7 +1431,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1481,39 +1503,6 @@
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1538,11 +1527,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1566,6 +1552,54 @@
     </xf>
     <xf numFmtId="41" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2397,161 +2431,161 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B2" s="20" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B3" s="25" t="s">
-        <v>158</v>
+      <c r="B3" s="45" t="s">
+        <v>153</v>
       </c>
       <c r="C3" s="21">
         <v>45385</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B4" s="25"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="21">
         <v>45413</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B5" s="25"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="21">
         <v>45437</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B6" s="25"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="21">
         <v>45438</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B7" s="25"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="21">
         <v>45446</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B8" s="25"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="21">
         <v>45464</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B9" s="25"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="21">
         <v>45477</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B10" s="25"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="21">
         <v>45485</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B11" s="25" t="s">
-        <v>167</v>
+      <c r="B11" s="45" t="s">
+        <v>162</v>
       </c>
       <c r="C11" s="21">
         <v>45490</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B12" s="25"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="21">
         <v>45492</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B13" s="25"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="21">
         <v>45505</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B14" s="25"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="21">
         <v>45513</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B15" s="25"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="21">
         <v>45517</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B16" s="25"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="21">
         <v>45518</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B17" s="25"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="21">
         <v>45524</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B18" s="25"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="21">
         <v>45526</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2568,7 +2602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAC6710-659B-49E6-B888-9B9D4144F24E}">
   <dimension ref="B2:U14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
@@ -2593,106 +2627,106 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B2" s="45"/>
-      <c r="C2" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="E2" s="47" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="G2" s="47" t="s">
+      <c r="F2" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="I2" s="47" t="s">
+      <c r="H2" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="K2" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="L2" s="48" t="b">
+      <c r="K2" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="L2" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="M2" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="O2" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="P2" s="48" t="s">
+      <c r="O2" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="P2" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q2" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="R2" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="S2" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="T2" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="Q2" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="R2" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="S2" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="T2" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="U2" s="48" t="s">
-        <v>133</v>
+      <c r="U2" s="36" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="41">
         <v>4366209.940219366</v>
       </c>
-      <c r="D3" s="53">
+      <c r="D3" s="41">
         <v>2089.547783665013</v>
       </c>
-      <c r="E3" s="52">
+      <c r="E3" s="40">
         <v>3.4416783069938351E-4</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="41">
         <v>1869.293897347364</v>
       </c>
-      <c r="G3" s="52">
+      <c r="G3" s="40">
         <v>1.6649721033909121E-2</v>
       </c>
-      <c r="H3" s="53">
+      <c r="H3" s="41">
         <v>1513.8074596774311</v>
       </c>
-      <c r="I3" s="52">
+      <c r="I3" s="40">
         <v>1.3727969457467289E-2</v>
       </c>
-      <c r="K3" s="50">
+      <c r="K3" s="38">
         <v>45017</v>
       </c>
-      <c r="L3" s="55">
+      <c r="L3" s="43">
         <v>109379.06666666669</v>
       </c>
-      <c r="M3" s="55">
+      <c r="M3" s="43">
         <v>107316.671875</v>
       </c>
-      <c r="N3" s="56">
+      <c r="N3" s="44">
         <v>107275.3828125</v>
       </c>
-      <c r="O3" s="56">
+      <c r="O3" s="44">
         <v>111397.2578125</v>
       </c>
-      <c r="P3" s="56">
+      <c r="P3" s="44">
         <v>106987.15121414119</v>
       </c>
-      <c r="Q3" s="56">
+      <c r="Q3" s="44">
         <v>106795.767202765</v>
       </c>
       <c r="R3" s="10">
@@ -2709,49 +2743,49 @@
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C4" s="42">
         <v>12005542.874909099</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D4" s="42">
         <v>3464.901567852844</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="39">
         <v>9.7674510222446023E-4</v>
       </c>
-      <c r="F4" s="54">
+      <c r="F4" s="42">
         <v>2483.9221315543491</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="39">
         <v>2.2256649710768531E-2</v>
       </c>
-      <c r="H4" s="54">
+      <c r="H4" s="42">
         <v>2023.3940944220519</v>
       </c>
-      <c r="I4" s="51">
+      <c r="I4" s="39">
         <v>1.753889325642205E-2</v>
       </c>
-      <c r="K4" s="50">
+      <c r="K4" s="38">
         <v>45047</v>
       </c>
-      <c r="L4" s="55">
+      <c r="L4" s="43">
         <v>111638.70967741941</v>
       </c>
-      <c r="M4" s="55">
+      <c r="M4" s="43">
         <v>110438.78125</v>
       </c>
-      <c r="N4" s="56">
+      <c r="N4" s="44">
         <v>114101.046875</v>
       </c>
-      <c r="O4" s="56">
+      <c r="O4" s="44">
         <v>108912.2421875</v>
       </c>
-      <c r="P4" s="56">
+      <c r="P4" s="44">
         <v>103522.0739640465</v>
       </c>
-      <c r="Q4" s="56">
+      <c r="Q4" s="44">
         <v>110025.0747488479</v>
       </c>
       <c r="R4" s="10">
@@ -2768,49 +2802,49 @@
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B5" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="54">
+      <c r="B5" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="42">
         <v>12896231.265396889</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="42">
         <v>3591.1323096478759</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="39">
         <v>1.0064020012976939E-3</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="42">
         <v>2845.4236240498658</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="39">
         <v>2.5217906473115628E-2</v>
       </c>
-      <c r="H5" s="54">
+      <c r="H5" s="42">
         <v>2474.936365927424</v>
       </c>
-      <c r="I5" s="51">
+      <c r="I5" s="39">
         <v>2.1989818210618021E-2</v>
       </c>
-      <c r="K5" s="50">
+      <c r="K5" s="38">
         <v>45078</v>
       </c>
-      <c r="L5" s="55">
+      <c r="L5" s="43">
         <v>109145.3666666667</v>
       </c>
-      <c r="M5" s="55">
+      <c r="M5" s="43">
         <v>108310.6640625</v>
       </c>
-      <c r="N5" s="56">
+      <c r="N5" s="44">
         <v>108320.8671875</v>
       </c>
-      <c r="O5" s="56">
+      <c r="O5" s="44">
         <v>111065.6953125</v>
       </c>
-      <c r="P5" s="56">
+      <c r="P5" s="44">
         <v>106858.3175090499</v>
       </c>
-      <c r="Q5" s="56">
+      <c r="Q5" s="44">
         <v>108286.2754354839</v>
       </c>
       <c r="R5" s="10">
@@ -2827,49 +2861,49 @@
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B6" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="54">
+      <c r="B6" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="42">
         <v>24463691.578195989</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="42">
         <v>4946.0784039677319</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="39">
         <v>1.868876508985351E-3</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="42">
         <v>4099.0271042302229</v>
       </c>
-      <c r="G6" s="51">
+      <c r="G6" s="39">
         <v>3.6054886472777707E-2</v>
       </c>
-      <c r="H6" s="54">
+      <c r="H6" s="42">
         <v>2898.5479990732201</v>
       </c>
-      <c r="I6" s="51">
+      <c r="I6" s="39">
         <v>2.5655569356766841E-2</v>
       </c>
-      <c r="K6" s="50">
+      <c r="K6" s="38">
         <v>45108</v>
       </c>
-      <c r="L6" s="55">
+      <c r="L6" s="43">
         <v>105798.9677419355</v>
       </c>
-      <c r="M6" s="55">
+      <c r="M6" s="43">
         <v>104723.125</v>
       </c>
-      <c r="N6" s="56">
+      <c r="N6" s="44">
         <v>104948.4375</v>
       </c>
-      <c r="O6" s="56">
+      <c r="O6" s="44">
         <v>109471.34375</v>
       </c>
-      <c r="P6" s="56">
+      <c r="P6" s="44">
         <v>105683.1712712998</v>
       </c>
-      <c r="Q6" s="56">
+      <c r="Q6" s="44">
         <v>106922.6121766513</v>
       </c>
       <c r="R6" s="10">
@@ -2886,49 +2920,49 @@
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B7" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="54">
+      <c r="B7" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="42">
         <v>20948958.954504989</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="42">
         <v>4577.0032722847154</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="39">
         <v>1.615856209714391E-3</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="42">
         <v>3883.009020847694</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="39">
         <v>3.4249054575633243E-2</v>
       </c>
-      <c r="H7" s="54">
+      <c r="H7" s="42">
         <v>3600.2676389109911</v>
       </c>
-      <c r="I7" s="51">
+      <c r="I7" s="39">
         <v>3.1795779959368498E-2</v>
       </c>
-      <c r="K7" s="50">
+      <c r="K7" s="38">
         <v>45139</v>
       </c>
-      <c r="L7" s="55">
+      <c r="L7" s="43">
         <v>108136.25806451611</v>
       </c>
-      <c r="M7" s="55">
+      <c r="M7" s="43">
         <v>106787.9375</v>
       </c>
-      <c r="N7" s="56">
+      <c r="N7" s="44">
         <v>103253.9921875</v>
       </c>
-      <c r="O7" s="56">
+      <c r="O7" s="44">
         <v>108800.5</v>
       </c>
-      <c r="P7" s="56">
+      <c r="P7" s="44">
         <v>105448.42103277511</v>
       </c>
-      <c r="Q7" s="56">
+      <c r="Q7" s="44">
         <v>111056.85502995391</v>
       </c>
       <c r="R7" s="10">
@@ -2945,49 +2979,49 @@
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B8" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="54">
+      <c r="B8" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="42">
         <v>16968396.959946569</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="42">
         <v>4119.2714112991589</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="39">
         <v>1.335518110631531E-3</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="42">
         <v>3736.2478834024701</v>
       </c>
-      <c r="G8" s="51">
+      <c r="G8" s="39">
         <v>3.3244118000309512E-2</v>
       </c>
-      <c r="H8" s="54">
+      <c r="H8" s="42">
         <v>3917.2181199596821</v>
       </c>
-      <c r="I8" s="51">
+      <c r="I8" s="39">
         <v>3.467868752824578E-2</v>
       </c>
-      <c r="K8" s="50">
+      <c r="K8" s="38">
         <v>45170</v>
       </c>
-      <c r="L8" s="55">
+      <c r="L8" s="43">
         <v>109703.3333333333</v>
       </c>
-      <c r="M8" s="55">
+      <c r="M8" s="43">
         <v>106739.1171875</v>
       </c>
-      <c r="N8" s="56">
+      <c r="N8" s="44">
         <v>100757.4140625</v>
       </c>
-      <c r="O8" s="56">
+      <c r="O8" s="44">
         <v>109696.28125</v>
       </c>
-      <c r="P8" s="56">
+      <c r="P8" s="44">
         <v>105014.341760991</v>
       </c>
-      <c r="Q8" s="56">
+      <c r="Q8" s="44">
         <v>105778.7604477726</v>
       </c>
       <c r="R8" s="10">
@@ -3004,49 +3038,49 @@
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="42">
         <v>18299632.144655678</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="42">
         <v>4277.8069316713763</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="39">
         <v>1.425902313000507E-3</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="42">
         <v>3896.9371265140298</v>
       </c>
-      <c r="G9" s="51">
+      <c r="G9" s="39">
         <v>3.4579123401055782E-2</v>
       </c>
-      <c r="H9" s="54">
+      <c r="H9" s="42">
         <v>4344.4149445564544</v>
       </c>
-      <c r="I9" s="51">
+      <c r="I9" s="39">
         <v>3.8938440601463592E-2</v>
       </c>
-      <c r="K9" s="50">
+      <c r="K9" s="38">
         <v>45200</v>
       </c>
-      <c r="L9" s="55">
+      <c r="L9" s="43">
         <v>117529.5806451613</v>
       </c>
-      <c r="M9" s="55">
+      <c r="M9" s="43">
         <v>116181.7890625</v>
       </c>
-      <c r="N9" s="56">
+      <c r="N9" s="44">
         <v>113235.4375</v>
       </c>
-      <c r="O9" s="56">
+      <c r="O9" s="44">
         <v>116931.4453125</v>
       </c>
-      <c r="P9" s="56">
+      <c r="P9" s="44">
         <v>114420.3216787558</v>
       </c>
-      <c r="Q9" s="56">
+      <c r="Q9" s="44">
         <v>113385.9846528417</v>
       </c>
       <c r="R9" s="10">
@@ -3063,49 +3097,49 @@
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B10" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="54">
+      <c r="B10" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="42">
         <v>27375446.555563498</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="42">
         <v>5232.1550584404031</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="39">
         <v>2.1567772811551989E-3</v>
       </c>
-      <c r="F10" s="54">
+      <c r="F10" s="42">
         <v>4812.7958070695831</v>
       </c>
-      <c r="G10" s="51">
+      <c r="G10" s="39">
         <v>4.2739793151799647E-2</v>
       </c>
-      <c r="H10" s="54">
+      <c r="H10" s="42">
         <v>5523.5153225806353</v>
       </c>
-      <c r="I10" s="51">
+      <c r="I10" s="39">
         <v>4.6849600271216138E-2</v>
       </c>
-      <c r="K10" s="50">
+      <c r="K10" s="38">
         <v>45231</v>
       </c>
-      <c r="L10" s="55">
+      <c r="L10" s="43">
         <v>118239.2</v>
       </c>
-      <c r="M10" s="55">
+      <c r="M10" s="43">
         <v>117620.78125</v>
       </c>
-      <c r="N10" s="56">
+      <c r="N10" s="44">
         <v>118221.734375</v>
       </c>
-      <c r="O10" s="56">
+      <c r="O10" s="44">
         <v>114310.7421875</v>
       </c>
-      <c r="P10" s="56">
+      <c r="P10" s="44">
         <v>116291.7617440926</v>
       </c>
-      <c r="Q10" s="56">
+      <c r="Q10" s="44">
         <v>111826.7121367127</v>
       </c>
       <c r="R10" s="10">
@@ -3122,49 +3156,49 @@
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B11" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="54">
+      <c r="B11" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="42">
         <v>47898728.321140952</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="42">
         <v>6920.8907173239604</v>
       </c>
-      <c r="E11" s="51">
+      <c r="E11" s="39">
         <v>3.5956511225066321E-3</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="42">
         <v>5870.9292355127454</v>
       </c>
-      <c r="G11" s="51">
+      <c r="G11" s="39">
         <v>5.1324300906250592E-2</v>
       </c>
-      <c r="H11" s="54">
+      <c r="H11" s="42">
         <v>5579.0502852574646</v>
       </c>
-      <c r="I11" s="51">
+      <c r="I11" s="39">
         <v>5.1524056154971187E-2</v>
       </c>
-      <c r="K11" s="50">
+      <c r="K11" s="38">
         <v>45261</v>
       </c>
-      <c r="L11" s="55">
+      <c r="L11" s="43">
         <v>117662.83870967739</v>
       </c>
-      <c r="M11" s="55">
+      <c r="M11" s="43">
         <v>115002.625</v>
       </c>
-      <c r="N11" s="56">
+      <c r="N11" s="44">
         <v>115719.734375</v>
       </c>
-      <c r="O11" s="56">
+      <c r="O11" s="44">
         <v>114982.359375</v>
       </c>
-      <c r="P11" s="56">
+      <c r="P11" s="44">
         <v>110122.7100826784</v>
       </c>
-      <c r="Q11" s="56">
+      <c r="Q11" s="44">
         <v>111605.47519201229</v>
       </c>
       <c r="R11" s="10">
@@ -3189,25 +3223,25 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
-      <c r="K12" s="50">
+      <c r="K12" s="38">
         <v>45292</v>
       </c>
-      <c r="L12" s="55">
+      <c r="L12" s="43">
         <v>107053.83870967739</v>
       </c>
-      <c r="M12" s="55">
+      <c r="M12" s="43">
         <v>103956.4375</v>
       </c>
-      <c r="N12" s="56">
+      <c r="N12" s="44">
         <v>105987.984375</v>
       </c>
-      <c r="O12" s="56">
+      <c r="O12" s="44">
         <v>104784.4453125</v>
       </c>
-      <c r="P12" s="56">
+      <c r="P12" s="44">
         <v>105926.4398691503</v>
       </c>
-      <c r="Q12" s="56">
+      <c r="Q12" s="44">
         <v>103637.9088310292</v>
       </c>
       <c r="R12" s="10">
@@ -3224,25 +3258,25 @@
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="K13" s="50">
+      <c r="K13" s="38">
         <v>45323</v>
       </c>
-      <c r="L13" s="55">
+      <c r="L13" s="43">
         <v>119452.1034482759</v>
       </c>
-      <c r="M13" s="55">
+      <c r="M13" s="43">
         <v>115909.1015625</v>
       </c>
-      <c r="N13" s="56">
+      <c r="N13" s="44">
         <v>117234.640625</v>
       </c>
-      <c r="O13" s="56">
+      <c r="O13" s="44">
         <v>114072.9609375</v>
       </c>
-      <c r="P13" s="56">
+      <c r="P13" s="44">
         <v>111243.6889772594</v>
       </c>
-      <c r="Q13" s="56">
+      <c r="Q13" s="44">
         <v>115667.4980491021</v>
       </c>
       <c r="R13" s="10">
@@ -3259,25 +3293,25 @@
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="K14" s="50">
+      <c r="K14" s="38">
         <v>45352</v>
       </c>
-      <c r="L14" s="55">
+      <c r="L14" s="43">
         <v>112048.4193548387</v>
       </c>
-      <c r="M14" s="55">
+      <c r="M14" s="43">
         <v>110369.125</v>
       </c>
-      <c r="N14" s="56">
+      <c r="N14" s="44">
         <v>112248.21875</v>
       </c>
-      <c r="O14" s="56">
+      <c r="O14" s="44">
         <v>103767.6015625</v>
       </c>
-      <c r="P14" s="56">
+      <c r="P14" s="44">
         <v>105080.9586631656</v>
       </c>
-      <c r="Q14" s="56">
+      <c r="Q14" s="44">
         <v>102291.1336651306</v>
       </c>
       <c r="R14" s="10">
@@ -3301,137 +3335,139 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E816AEE-3F07-42B7-8E09-01B80DBF9077}">
-  <dimension ref="B2:G13"/>
+  <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.9140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" customWidth="1"/>
-    <col min="7" max="7" width="45.75" customWidth="1"/>
+    <col min="3" max="3" width="15.9140625" customWidth="1"/>
+    <col min="4" max="4" width="49" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" customWidth="1"/>
+    <col min="8" max="8" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="17" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:8" ht="17" x14ac:dyDescent="0.3">
+      <c r="B2" s="59" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" ht="17" x14ac:dyDescent="0.3">
+      <c r="B3" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="58"/>
+      <c r="D3" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="2:8" ht="17" x14ac:dyDescent="0.3">
+      <c r="B4" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="2:8" ht="17" x14ac:dyDescent="0.3">
+      <c r="B5" s="47"/>
+      <c r="C5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="2:7" ht="17" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="F5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="2:8" ht="51" x14ac:dyDescent="0.3">
+      <c r="B6" s="47"/>
+      <c r="C6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:8" ht="34" x14ac:dyDescent="0.3">
+      <c r="B7" s="48"/>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="2:7" ht="17" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="4" t="s">
+    </row>
+    <row r="9" spans="2:8" ht="17" x14ac:dyDescent="0.3">
+      <c r="F9" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="17" x14ac:dyDescent="0.3">
+      <c r="F10" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:7" ht="51" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:7" ht="34" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="17" x14ac:dyDescent="0.3">
-      <c r="E8" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="G10" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="17" x14ac:dyDescent="0.3">
+      <c r="F11" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G11" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="17" x14ac:dyDescent="0.3">
+      <c r="F12" s="7" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" ht="17" x14ac:dyDescent="0.3">
-      <c r="E9" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="17" x14ac:dyDescent="0.3">
-      <c r="E10" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="17" x14ac:dyDescent="0.3">
-      <c r="E11" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" s="9" t="s">
+      <c r="G12" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="17" x14ac:dyDescent="0.3">
-      <c r="E12" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="17" x14ac:dyDescent="0.3">
-      <c r="E13" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3453,33 +3489,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="D2" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="2:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="46" t="s">
         <v>101</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -3496,7 +3532,7 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="B5" s="27"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="7" t="s">
         <v>91</v>
       </c>
@@ -3511,7 +3547,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="B6" s="28"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="7" t="s">
         <v>89</v>
       </c>
@@ -3526,7 +3562,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="46" t="s">
         <v>99</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -3543,7 +3579,7 @@
       </c>
     </row>
     <row r="8" spans="2:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="B8" s="27"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="7" t="s">
         <v>91</v>
       </c>
@@ -3558,7 +3594,7 @@
       </c>
     </row>
     <row r="9" spans="2:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="B9" s="28"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="7" t="s">
         <v>89</v>
       </c>
@@ -3573,7 +3609,7 @@
       </c>
     </row>
     <row r="10" spans="2:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="46" t="s">
         <v>96</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -3590,7 +3626,7 @@
       </c>
     </row>
     <row r="11" spans="2:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="B11" s="27"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="7" t="s">
         <v>91</v>
       </c>
@@ -3605,7 +3641,7 @@
       </c>
     </row>
     <row r="12" spans="2:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="B12" s="28"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="7" t="s">
         <v>89</v>
       </c>
@@ -3620,7 +3656,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="46" t="s">
         <v>94</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -3637,7 +3673,7 @@
       </c>
     </row>
     <row r="14" spans="2:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="B14" s="27"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="7" t="s">
         <v>91</v>
       </c>
@@ -3652,7 +3688,7 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="B15" s="28"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="7" t="s">
         <v>89</v>
       </c>
@@ -3667,7 +3703,7 @@
       </c>
     </row>
     <row r="16" spans="2:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="46" t="s">
         <v>88</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -3684,7 +3720,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="B17" s="27"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="7" t="s">
         <v>91</v>
       </c>
@@ -3699,7 +3735,7 @@
       </c>
     </row>
     <row r="18" spans="2:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="B18" s="28"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="7" t="s">
         <v>89</v>
       </c>
@@ -3778,27 +3814,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="25" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="29" t="s">
         <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -3806,13 +3842,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="29" t="s">
         <v>62</v>
       </c>
       <c r="D3" t="s">
@@ -3820,13 +3856,13 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="30">
         <v>101360.419354838</v>
       </c>
       <c r="D4" t="s">
@@ -3834,11 +3870,11 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
-      <c r="B5" s="37" t="s">
+      <c r="A5" s="50"/>
+      <c r="B5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="30">
         <v>111217.607142857</v>
       </c>
       <c r="D5" t="s">
@@ -3846,11 +3882,11 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="44"/>
-      <c r="B6" s="37" t="s">
+      <c r="A6" s="50"/>
+      <c r="B6" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="30">
         <v>101693.548387096</v>
       </c>
       <c r="D6" t="s">
@@ -3858,11 +3894,11 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="44"/>
-      <c r="B7" s="37" t="s">
+      <c r="A7" s="50"/>
+      <c r="B7" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="30">
         <v>109379.066666666</v>
       </c>
       <c r="D7" t="s">
@@ -3870,11 +3906,11 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="44"/>
-      <c r="B8" s="37" t="s">
+      <c r="A8" s="50"/>
+      <c r="B8" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="30">
         <v>111638.709677419</v>
       </c>
       <c r="D8" t="s">
@@ -3882,11 +3918,11 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="44"/>
-      <c r="B9" s="37" t="s">
+      <c r="A9" s="50"/>
+      <c r="B9" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="30">
         <v>109145.366666666</v>
       </c>
       <c r="D9" t="s">
@@ -3894,11 +3930,11 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="44"/>
-      <c r="B10" s="37" t="s">
+      <c r="A10" s="50"/>
+      <c r="B10" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="30">
         <v>105798.967741935</v>
       </c>
       <c r="D10" t="s">
@@ -3906,11 +3942,11 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
-      <c r="B11" s="37" t="s">
+      <c r="A11" s="50"/>
+      <c r="B11" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="30">
         <v>108136.25806451601</v>
       </c>
       <c r="D11" t="s">
@@ -3918,11 +3954,11 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="44"/>
-      <c r="B12" s="37" t="s">
+      <c r="A12" s="50"/>
+      <c r="B12" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="30">
         <v>109703.33333333299</v>
       </c>
       <c r="D12" t="s">
@@ -3930,11 +3966,11 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="37" t="s">
+      <c r="A13" s="50"/>
+      <c r="B13" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="30">
         <v>117529.580645161</v>
       </c>
       <c r="D13" t="s">
@@ -3942,11 +3978,11 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="44"/>
-      <c r="B14" s="37" t="s">
+      <c r="A14" s="50"/>
+      <c r="B14" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="30">
         <v>118239.2</v>
       </c>
       <c r="D14" t="s">
@@ -3954,11 +3990,11 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="44"/>
-      <c r="B15" s="37" t="s">
+      <c r="A15" s="50"/>
+      <c r="B15" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="30">
         <v>117662.838709677</v>
       </c>
       <c r="D15" t="s">
@@ -3966,13 +4002,13 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="31">
         <v>44927</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -3980,11 +4016,11 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
-      <c r="B17" s="38" t="s">
+      <c r="A17" s="50"/>
+      <c r="B17" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="30">
         <v>31</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -3992,11 +4028,11 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="44"/>
-      <c r="B18" s="38" t="s">
+      <c r="A18" s="50"/>
+      <c r="B18" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="30">
         <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -4004,11 +4040,11 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="44"/>
-      <c r="B19" s="38" t="s">
+      <c r="A19" s="50"/>
+      <c r="B19" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="41">
+      <c r="C19" s="30">
         <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -4016,11 +4052,11 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="44"/>
-      <c r="B20" s="38" t="s">
+      <c r="A20" s="50"/>
+      <c r="B20" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="30">
         <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -4028,11 +4064,11 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="44"/>
-      <c r="B21" s="38" t="s">
+      <c r="A21" s="50"/>
+      <c r="B21" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="30">
         <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -4040,379 +4076,379 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="30">
         <v>1966.5161290000001</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="50"/>
+      <c r="B23" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="30">
+        <v>104038.2258</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="50"/>
+      <c r="B24" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" s="30">
+        <v>33747.8992</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="50"/>
+      <c r="B25" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" s="30">
+        <v>2473.000305</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="50"/>
+      <c r="B26" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C26" s="30">
+        <v>32790.46211</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="50"/>
+      <c r="B27" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C27" s="30">
+        <v>0.96961219200000004</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="50"/>
+      <c r="B28" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="C28" s="30">
+        <v>13.64488431</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="44"/>
-      <c r="B23" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="41">
-        <v>104038.2258</v>
-      </c>
-      <c r="D23" s="1" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="50"/>
+      <c r="B29" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C29" s="30">
+        <v>0.58677162599999999</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="44"/>
-      <c r="B24" s="38" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="50"/>
+      <c r="B30" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="30">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="50"/>
+      <c r="B31" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="30">
+        <v>15.064516129999999</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="50"/>
+      <c r="B32" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="30">
+        <v>2.2580645160000001</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="50"/>
+      <c r="B33" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="30">
+        <v>0.25806451600000002</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="50"/>
+      <c r="B34" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="30">
+        <v>12.548387099999999</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="50"/>
+      <c r="B35" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="30">
+        <v>5</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="50"/>
+      <c r="B36" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="30">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="50"/>
+      <c r="B37" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="30">
+        <v>8</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="50"/>
+      <c r="B38" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="30">
+        <v>114.8064516</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="50"/>
+      <c r="B39" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="41">
-        <v>33747.8992</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="44"/>
-      <c r="B25" s="38" t="s">
+      <c r="C39" s="30">
+        <v>878.5441955</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="50"/>
+      <c r="B40" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="C25" s="41">
-        <v>2473.000305</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="44"/>
-      <c r="B26" s="38" t="s">
+      <c r="C40" s="30">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="50"/>
+      <c r="B41" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="C26" s="41">
-        <v>32790.46211</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="44"/>
-      <c r="B27" s="38" t="s">
+      <c r="C41" s="30">
+        <v>17435.58065</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="50"/>
+      <c r="B42" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="C27" s="41">
-        <v>0.96961219200000004</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="44"/>
-      <c r="B28" s="38" t="s">
+      <c r="C42" s="30">
+        <v>93.903225809999995</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="50"/>
+      <c r="B43" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="41">
-        <v>13.64488431</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
-      <c r="B29" s="38" t="s">
+      <c r="C43" s="30">
+        <v>44985.838710000004</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="50"/>
+      <c r="B44" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="C29" s="41">
-        <v>0.58677162599999999</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="44"/>
-      <c r="B30" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="41">
+      <c r="C44" s="30">
+        <v>300.87096769999999</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="C45" s="30">
+        <v>44772018.060000002</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="50"/>
+      <c r="B46" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C46" s="30">
+        <v>32959.516130000004</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="50"/>
+      <c r="B47" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C47" s="30">
         <v>0</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
-      <c r="B31" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="41">
-        <v>15.064516129999999</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="44"/>
-      <c r="B32" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="41">
-        <v>2.2580645160000001</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="44"/>
-      <c r="B33" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="41">
-        <v>0.25806451600000002</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="44"/>
-      <c r="B34" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="41">
-        <v>12.548387099999999</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="44"/>
-      <c r="B35" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="41">
-        <v>5</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="44"/>
-      <c r="B36" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="41">
-        <v>5</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="44"/>
-      <c r="B37" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="41">
-        <v>8</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="44"/>
-      <c r="B38" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="41">
-        <v>114.8064516</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="44"/>
-      <c r="B39" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="C39" s="41">
-        <v>878.5441955</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="44"/>
-      <c r="B40" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="C40" s="41">
+      <c r="D47" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="50"/>
+      <c r="B48" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C48" s="30">
+        <v>29798656.940000001</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="50"/>
+      <c r="B49" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="C49" s="32">
+        <v>44355311.189999998</v>
+      </c>
+      <c r="D49" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="50"/>
+      <c r="B50" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="C50" s="32">
         <v>0</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="44"/>
-      <c r="B41" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="C41" s="41">
-        <v>17435.58065</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="44"/>
-      <c r="B42" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="C42" s="41">
-        <v>93.903225809999995</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="44"/>
-      <c r="B43" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="C43" s="41">
-        <v>44985.838710000004</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="44"/>
-      <c r="B44" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="C44" s="41">
-        <v>300.87096769999999</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="D50" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="38" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="50"/>
+      <c r="B51" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="C45" s="41">
-        <v>44772018.060000002</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="C51" s="32">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="44"/>
-      <c r="B46" s="38" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="50"/>
+      <c r="B52" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="C46" s="41">
-        <v>32959.516130000004</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="C52" s="32">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="44"/>
-      <c r="B47" s="38" t="s">
-        <v>204</v>
-      </c>
-      <c r="C47" s="41">
-        <v>0</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="44"/>
-      <c r="B48" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="C48" s="41">
-        <v>29798656.940000001</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="44"/>
-      <c r="B49" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="C49" s="43">
-        <v>44355311.189999998</v>
-      </c>
-      <c r="D49" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="44"/>
-      <c r="B50" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="C50" s="43">
-        <v>0</v>
-      </c>
-      <c r="D50" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="44"/>
-      <c r="B51" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="C51" s="43">
-        <v>0</v>
-      </c>
-      <c r="D51" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="44"/>
-      <c r="B52" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="C52" s="43">
-        <v>0</v>
-      </c>
-      <c r="D52" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -4568,153 +4604,153 @@
     <row r="1" spans="2:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F2" s="1"/>
       <c r="H2" s="11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="33" t="s">
-        <v>130</v>
+      <c r="B3" s="51" t="s">
+        <v>125</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>63</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E3" s="15">
         <v>2001</v>
       </c>
-      <c r="H3" s="33" t="s">
-        <v>130</v>
+      <c r="H3" s="51" t="s">
+        <v>125</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>63</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K3" s="15">
         <v>2001</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="34"/>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="54" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E4" s="15">
         <v>2014</v>
       </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="30" t="s">
+      <c r="H4" s="52"/>
+      <c r="I4" s="54" t="s">
         <v>64</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K4" s="15">
         <v>2014</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="34"/>
-      <c r="C5" s="31"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="14" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E5" s="15">
         <v>2016</v>
       </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="31"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="55"/>
       <c r="J5" s="14" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K5" s="15">
         <v>2016</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="35"/>
-      <c r="C6" s="32"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E6" s="15">
         <v>2017</v>
       </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="32"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="56"/>
       <c r="J6" s="14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K6" s="15">
         <v>2017</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>136</v>
+      <c r="B7" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>131</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E7" s="15">
         <v>2010</v>
       </c>
-      <c r="H7" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>136</v>
+      <c r="H7" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>131</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K7" s="15">
         <v>2010</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="34"/>
-      <c r="C8" s="31"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="14" t="s">
         <v>90</v>
       </c>
       <c r="E8" s="15">
         <v>2019</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="31"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="55"/>
       <c r="J8" s="14" t="s">
         <v>90</v>
       </c>
@@ -4723,16 +4759,16 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="34"/>
-      <c r="C9" s="31"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="14" t="s">
         <v>97</v>
       </c>
       <c r="E9" s="15">
         <v>2021</v>
       </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="31"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="55"/>
       <c r="J9" s="14" t="s">
         <v>97</v>
       </c>
@@ -4741,16 +4777,16 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="34"/>
-      <c r="C10" s="31"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="14" t="s">
         <v>98</v>
       </c>
       <c r="E10" s="15">
         <v>2021</v>
       </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="31"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="55"/>
       <c r="J10" s="14" t="s">
         <v>98</v>
       </c>
@@ -4759,56 +4795,56 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="34"/>
-      <c r="C11" s="31"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="55"/>
       <c r="D11" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E11" s="15">
         <v>2023</v>
       </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="32"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="56"/>
       <c r="J11" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K11" s="15">
         <v>2023</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="34"/>
-      <c r="C12" s="32"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E12" s="15">
         <v>2023</v>
       </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="30" t="s">
-        <v>178</v>
+      <c r="H12" s="52"/>
+      <c r="I12" s="54" t="s">
+        <v>172</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K12" s="15">
         <v>2014</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="34"/>
-      <c r="C13" s="30" t="s">
-        <v>139</v>
+      <c r="B13" s="52"/>
+      <c r="C13" s="54" t="s">
+        <v>134</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E13" s="15">
         <v>2014</v>
       </c>
-      <c r="H13" s="34"/>
-      <c r="I13" s="31"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="55"/>
       <c r="J13" s="14" t="s">
         <v>95</v>
       </c>
@@ -4817,16 +4853,16 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="34"/>
-      <c r="C14" s="31"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="14" t="s">
         <v>95</v>
       </c>
       <c r="E14" s="15">
         <v>2014</v>
       </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="31"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="55"/>
       <c r="J14" s="14" t="s">
         <v>92</v>
       </c>
@@ -4835,16 +4871,16 @@
       </c>
     </row>
     <row r="15" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="34"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="14" t="s">
         <v>92</v>
       </c>
       <c r="E15" s="15">
         <v>2014</v>
       </c>
-      <c r="H15" s="34"/>
-      <c r="I15" s="31"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="55"/>
       <c r="J15" s="14" t="s">
         <v>100</v>
       </c>
@@ -4853,93 +4889,93 @@
       </c>
     </row>
     <row r="16" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="34"/>
-      <c r="C16" s="31"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="14" t="s">
         <v>100</v>
       </c>
       <c r="E16" s="15">
         <v>2017</v>
       </c>
-      <c r="H16" s="35"/>
-      <c r="I16" s="32"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="56"/>
       <c r="J16" s="14" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K16" s="15">
         <v>2018</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="34"/>
-      <c r="C17" s="31"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="14" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E17" s="15">
         <v>2018</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="34"/>
-      <c r="C18" s="32"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E18" s="15">
         <v>2020</v>
       </c>
       <c r="F18" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="34"/>
-      <c r="C19" s="30" t="s">
-        <v>146</v>
+      <c r="B19" s="52"/>
+      <c r="C19" s="54" t="s">
+        <v>141</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E19" s="15">
         <v>2021</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="34"/>
-      <c r="C20" s="31"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="14" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E20" s="15">
         <v>2021</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="34"/>
-      <c r="C21" s="31"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="55"/>
       <c r="D21" s="14" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E21" s="15">
         <v>2021</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="34"/>
-      <c r="C22" s="31"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="55"/>
       <c r="D22" s="14" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E22" s="15">
         <v>2021</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="35"/>
-      <c r="C23" s="32"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="14" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E23" s="15">
         <v>2022</v>
@@ -4947,17 +4983,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="H7:H16"/>
-    <mergeCell ref="I7:I11"/>
-    <mergeCell ref="I12:I16"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="I4:I6"/>
     <mergeCell ref="C19:C23"/>
     <mergeCell ref="B7:B23"/>
     <mergeCell ref="C13:C18"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C7:C12"/>
+    <mergeCell ref="H7:H16"/>
+    <mergeCell ref="I7:I11"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="I4:I6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5011,7 +5047,7 @@
         <v>83</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>84</v>
@@ -5026,7 +5062,7 @@
         <v>87</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="L1" s="5" t="str">
         <f>B1</f>
@@ -5037,7 +5073,7 @@
         <v>전체주중주말</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="O1" s="5" t="str">
         <f t="shared" ref="O1:O16" si="1">F1</f>
@@ -5065,22 +5101,22 @@
         <v>0</v>
       </c>
       <c r="W1" s="19" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="X1" s="19" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="Y1" s="19" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AA1" s="19" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AB1" s="19" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
@@ -5094,7 +5130,7 @@
         <v>93</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E2" s="19">
         <v>8</v>
@@ -5182,7 +5218,7 @@
         <v>91</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E3" s="19">
         <v>8</v>
@@ -5267,7 +5303,7 @@
         <v>89</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E4" s="19">
         <v>8</v>
@@ -5352,7 +5388,7 @@
         <v>93</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E5" s="19">
         <v>8</v>
@@ -5437,7 +5473,7 @@
         <v>91</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E6" s="19">
         <v>20</v>
@@ -5522,13 +5558,13 @@
         <v>89</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E7" s="19">
         <v>8</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G7" s="19">
         <v>8.9999999999999998E-4</v>
@@ -5607,7 +5643,7 @@
         <v>93</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E8" s="19">
         <v>20</v>
@@ -5695,7 +5731,7 @@
         <v>91</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E9" s="19">
         <v>8</v>
@@ -5780,13 +5816,13 @@
         <v>89</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E10" s="19">
         <v>8</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G10" s="19">
         <v>1.1000000000000001E-3</v>
@@ -5865,7 +5901,7 @@
         <v>93</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E11" s="19">
         <v>8</v>
@@ -5950,7 +5986,7 @@
         <v>91</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E12" s="19">
         <v>8</v>
@@ -6021,7 +6057,7 @@
         <v>-2.0807000000000002</v>
       </c>
       <c r="AB12" s="19" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
@@ -6035,7 +6071,7 @@
         <v>89</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E13" s="19">
         <v>20</v>
@@ -6106,7 +6142,7 @@
         <v>4.9067999999999996</v>
       </c>
       <c r="AB13" s="19" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
@@ -6120,13 +6156,13 @@
         <v>93</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E14" s="19">
         <v>20</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G14" s="19">
         <v>8.0000000000000004E-4</v>
@@ -6208,13 +6244,13 @@
         <v>91</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E15" s="19">
         <v>20</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G15" s="19">
         <v>2.0000000000000001E-4</v>
@@ -6293,13 +6329,13 @@
         <v>89</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E16" s="19">
         <v>8</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G16" s="19">
         <v>5.1000000000000004E-3</v>
@@ -6410,7 +6446,7 @@
         <v>1.7496</v>
       </c>
       <c r="AB18" s="19" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="12:28" x14ac:dyDescent="0.3">
@@ -6421,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="O19" s="5" t="s">
         <v>84</v>
@@ -6457,7 +6493,7 @@
         <v>7.2884000000000002</v>
       </c>
       <c r="AB19" s="19" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="12:28" x14ac:dyDescent="0.3">
@@ -6662,7 +6698,7 @@
         <v>20</v>
       </c>
       <c r="O24" s="16" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="P24" s="17">
         <v>8.0000000000000004E-4</v>
@@ -6744,7 +6780,7 @@
         <v>-4.0834000000000001</v>
       </c>
       <c r="AB26" s="19" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="12:28" x14ac:dyDescent="0.3">
@@ -6767,7 +6803,7 @@
         <v>0.63859999999999995</v>
       </c>
       <c r="AB27" s="19" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="12:28" x14ac:dyDescent="0.3">
@@ -6790,7 +6826,7 @@
         <v>-9.5329999999999995</v>
       </c>
       <c r="AB28" s="19" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="12:28" x14ac:dyDescent="0.3">
@@ -6813,7 +6849,7 @@
         <v>-5.6224999999999996</v>
       </c>
       <c r="AB29" s="19" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="12:28" x14ac:dyDescent="0.3">
@@ -6836,7 +6872,7 @@
         <v>-12.2522</v>
       </c>
       <c r="AB30" s="19" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="12:28" x14ac:dyDescent="0.3">
@@ -6859,7 +6895,7 @@
         <v>-8.9572000000000003</v>
       </c>
       <c r="AB31" s="19" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/Project-KTXForecasting/Result/Result_Stats_자문보고서(최종)_KK.xlsx
+++ b/Project-KTXForecasting/Result/Result_Stats_자문보고서(최종)_KK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\Project-KTXForecasting\Result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEBA]\Project-KTXForecasting\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFD9BA1-5D0B-4B96-BEB5-51C5C0F5A4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A304DCB2-A21E-49F1-A1B4-8C230718D389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{AC808E02-6729-4071-B5AC-204983E17A37}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" firstSheet="1" activeTab="7" xr2:uid="{AC808E02-6729-4071-B5AC-204983E17A37}"/>
   </bookViews>
   <sheets>
     <sheet name="진행내용" sheetId="6" r:id="rId1"/>
@@ -613,10 +613,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>모델 구출 후 예측성능 검증에 사용되는 데이터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>검증성능이 높은 모델로 실제 예측에 사용되는 데이터</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -709,10 +705,6 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Transformer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Vanilla Transformer</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1041,6 +1033,14 @@
   </si>
   <si>
     <t>설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델 구축 후 예측성능 검증에 사용되는 데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generative AI</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1556,6 +1556,12 @@
     <xf numFmtId="31" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1565,19 +1571,16 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1589,16 +1592,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2119,9 +2119,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2159,7 +2159,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2265,7 +2265,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2407,7 +2407,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2418,174 +2418,174 @@
   <dimension ref="B2:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="B2" sqref="B2:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="8.6640625" style="19"/>
-    <col min="3" max="3" width="17.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.6875" style="19"/>
+    <col min="3" max="3" width="17.3125" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="19"/>
+    <col min="5" max="16384" width="8.6875" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.6">
       <c r="B2" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="20" t="s">
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.6">
+      <c r="B3" s="45" t="s">
         <v>151</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B3" s="45" t="s">
-        <v>153</v>
       </c>
       <c r="C3" s="21">
         <v>45385</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.6">
       <c r="B4" s="45"/>
       <c r="C4" s="21">
         <v>45413</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.6">
       <c r="B5" s="45"/>
       <c r="C5" s="21">
         <v>45437</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.6">
       <c r="B6" s="45"/>
       <c r="C6" s="21">
         <v>45438</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.6">
       <c r="B7" s="45"/>
       <c r="C7" s="21">
         <v>45446</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.6">
       <c r="B8" s="45"/>
       <c r="C8" s="21">
         <v>45464</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.6">
       <c r="B9" s="45"/>
       <c r="C9" s="21">
         <v>45477</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.6">
       <c r="B10" s="45"/>
       <c r="C10" s="21">
         <v>45485</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.6">
       <c r="B11" s="45" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C11" s="21">
         <v>45490</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.6">
       <c r="B12" s="45"/>
       <c r="C12" s="21">
         <v>45492</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.6">
       <c r="B13" s="45"/>
       <c r="C13" s="21">
         <v>45505</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.6">
       <c r="B14" s="45"/>
       <c r="C14" s="21">
         <v>45513</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.6">
       <c r="B15" s="45"/>
       <c r="C15" s="21">
         <v>45517</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.6">
       <c r="B16" s="45"/>
       <c r="C16" s="21">
         <v>45518</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.6">
       <c r="B17" s="45"/>
       <c r="C17" s="21">
         <v>45524</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.6">
       <c r="B18" s="45"/>
       <c r="C18" s="21">
         <v>45526</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2606,51 +2606,51 @@
       <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="19"/>
-    <col min="2" max="2" width="14.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" style="19"/>
-    <col min="11" max="11" width="11.58203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6875" style="19"/>
+    <col min="2" max="2" width="14.3125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6875" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6875" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6875" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6875" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6875" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6875" style="19"/>
+    <col min="11" max="11" width="11.5625" style="19" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="13.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="12.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="12.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.6640625" style="19"/>
+    <col min="14" max="16" width="12.3125" style="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.3125" style="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="12.3125" style="19" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.6875" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.6">
       <c r="B2" s="33"/>
       <c r="C2" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="34" t="s">
         <v>136</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>137</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>85</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G2" s="35" t="s">
         <v>86</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I2" s="35" t="s">
         <v>87</v>
       </c>
       <c r="K2" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L2" s="36" t="b">
         <v>1</v>
@@ -2662,28 +2662,28 @@
         <v>100</v>
       </c>
       <c r="O2" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P2" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q2" s="36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R2" s="36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S2" s="36" t="s">
         <v>92</v>
       </c>
       <c r="T2" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="U2" s="36" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.6">
       <c r="B3" s="37" t="s">
         <v>95</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>103432.97673677051</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.6">
       <c r="B4" s="37" t="s">
         <v>100</v>
       </c>
@@ -2801,9 +2801,9 @@
         <v>106880.8246076215</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.6">
       <c r="B5" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="42">
         <v>12896231.265396889</v>
@@ -2860,9 +2860,9 @@
         <v>105863.7589511613</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.6">
       <c r="B6" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C6" s="42">
         <v>24463691.578195989</v>
@@ -2919,9 +2919,9 @@
         <v>105825.4377005022</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.6">
       <c r="B7" s="37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" s="42">
         <v>20948958.954504989</v>
@@ -2978,9 +2978,9 @@
         <v>107632.41628144791</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.6">
       <c r="B8" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" s="42">
         <v>16968396.959946569</v>
@@ -3037,7 +3037,7 @@
         <v>107129.6755690159</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.6">
       <c r="B9" s="37" t="s">
         <v>92</v>
       </c>
@@ -3096,9 +3096,9 @@
         <v>109759.1507165966</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.6">
       <c r="B10" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C10" s="42">
         <v>27375446.555563498</v>
@@ -3155,9 +3155,9 @@
         <v>109725.3053672532</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.6">
       <c r="B11" s="37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" s="42">
         <v>47898728.321140952</v>
@@ -3214,7 +3214,7 @@
         <v>106707.200470344</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
@@ -3257,7 +3257,7 @@
         <v>101841.8280690586</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.35">
       <c r="K13" s="38">
         <v>45323</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>108506.98285648441</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.35">
       <c r="K14" s="38">
         <v>45352</v>
       </c>
@@ -3337,46 +3337,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E816AEE-3F07-42B7-8E09-01B80DBF9077}">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.9140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.9140625" customWidth="1"/>
+    <col min="2" max="2" width="15.9375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.9375" customWidth="1"/>
     <col min="4" max="4" width="49" style="3" customWidth="1"/>
     <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" customWidth="1"/>
+    <col min="7" max="7" width="24.8125" customWidth="1"/>
     <col min="8" max="8" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="17" x14ac:dyDescent="0.3">
-      <c r="B2" s="59" t="s">
+    <row r="2" spans="2:8" ht="16.899999999999999" x14ac:dyDescent="0.35">
+      <c r="B2" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="6" t="s">
-        <v>239</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" ht="17" x14ac:dyDescent="0.3">
-      <c r="B3" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="58"/>
+    <row r="3" spans="2:8" ht="16.899999999999999" x14ac:dyDescent="0.35">
+      <c r="B3" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="47"/>
       <c r="D3" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F3" s="8"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" ht="17" x14ac:dyDescent="0.3">
-      <c r="B4" s="46" t="s">
-        <v>236</v>
+    <row r="4" spans="2:8" ht="16.899999999999999" x14ac:dyDescent="0.35">
+      <c r="B4" s="48" t="s">
+        <v>234</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>36</v>
@@ -3387,8 +3387,8 @@
       <c r="F4" s="8"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="17" x14ac:dyDescent="0.3">
-      <c r="B5" s="47"/>
+    <row r="5" spans="2:8" ht="33.75" x14ac:dyDescent="0.35">
+      <c r="B5" s="49"/>
       <c r="C5" s="7" t="s">
         <v>25</v>
       </c>
@@ -3398,19 +3398,19 @@
       <c r="F5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:8" ht="51" x14ac:dyDescent="0.3">
-      <c r="B6" s="47"/>
+    <row r="6" spans="2:8" ht="67.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="49"/>
       <c r="C6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:8" ht="34" x14ac:dyDescent="0.3">
-      <c r="B7" s="48"/>
+    <row r="7" spans="2:8" ht="33.75" x14ac:dyDescent="0.35">
+      <c r="B7" s="50"/>
       <c r="C7" s="7" t="s">
         <v>27</v>
       </c>
@@ -3418,9 +3418,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="17" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="16.899999999999999" x14ac:dyDescent="0.35">
       <c r="F9" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>107</v>
@@ -3429,37 +3429,37 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="17" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="16.899999999999999" x14ac:dyDescent="0.35">
       <c r="F10" s="7" t="s">
         <v>106</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="17" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="16.899999999999999" x14ac:dyDescent="0.35">
       <c r="F11" s="7" t="s">
         <v>109</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="17" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="16.899999999999999" x14ac:dyDescent="0.35">
       <c r="F12" s="7" t="s">
         <v>110</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3481,41 +3481,41 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="10.5625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="B2" s="49" t="s">
+    <row r="2" spans="2:6" ht="16.899999999999999" x14ac:dyDescent="0.35">
+      <c r="B2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-    </row>
-    <row r="3" spans="2:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="D2" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+    </row>
+    <row r="3" spans="2:6" ht="16.899999999999999" x14ac:dyDescent="0.35">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="B4" s="46" t="s">
+    </row>
+    <row r="4" spans="2:6" ht="16.899999999999999" x14ac:dyDescent="0.35">
+      <c r="B4" s="48" t="s">
         <v>101</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -3531,8 +3531,8 @@
         <v>125628</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="B5" s="47"/>
+    <row r="5" spans="2:6" ht="16.899999999999999" x14ac:dyDescent="0.35">
+      <c r="B5" s="49"/>
       <c r="C5" s="7" t="s">
         <v>91</v>
       </c>
@@ -3546,8 +3546,8 @@
         <v>156824</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="B6" s="48"/>
+    <row r="6" spans="2:6" ht="16.899999999999999" x14ac:dyDescent="0.35">
+      <c r="B6" s="50"/>
       <c r="C6" s="7" t="s">
         <v>89</v>
       </c>
@@ -3561,8 +3561,8 @@
         <v>134920</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="B7" s="46" t="s">
+    <row r="7" spans="2:6" ht="16.899999999999999" x14ac:dyDescent="0.35">
+      <c r="B7" s="48" t="s">
         <v>99</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -3578,8 +3578,8 @@
         <v>24107</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="B8" s="47"/>
+    <row r="8" spans="2:6" ht="16.899999999999999" x14ac:dyDescent="0.35">
+      <c r="B8" s="49"/>
       <c r="C8" s="7" t="s">
         <v>91</v>
       </c>
@@ -3593,8 +3593,8 @@
         <v>29279</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="B9" s="48"/>
+    <row r="9" spans="2:6" ht="16.899999999999999" x14ac:dyDescent="0.35">
+      <c r="B9" s="50"/>
       <c r="C9" s="7" t="s">
         <v>89</v>
       </c>
@@ -3608,8 +3608,8 @@
         <v>22917</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="B10" s="46" t="s">
+    <row r="10" spans="2:6" ht="16.899999999999999" x14ac:dyDescent="0.35">
+      <c r="B10" s="48" t="s">
         <v>96</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -3625,8 +3625,8 @@
         <v>20391</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="B11" s="47"/>
+    <row r="11" spans="2:6" ht="16.899999999999999" x14ac:dyDescent="0.35">
+      <c r="B11" s="49"/>
       <c r="C11" s="7" t="s">
         <v>91</v>
       </c>
@@ -3640,8 +3640,8 @@
         <v>23417</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="B12" s="48"/>
+    <row r="12" spans="2:6" ht="16.899999999999999" x14ac:dyDescent="0.35">
+      <c r="B12" s="50"/>
       <c r="C12" s="7" t="s">
         <v>89</v>
       </c>
@@ -3655,8 +3655,8 @@
         <v>20817</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="B13" s="46" t="s">
+    <row r="13" spans="2:6" ht="16.899999999999999" x14ac:dyDescent="0.35">
+      <c r="B13" s="48" t="s">
         <v>94</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -3672,8 +3672,8 @@
         <v>27828</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="B14" s="47"/>
+    <row r="14" spans="2:6" ht="16.899999999999999" x14ac:dyDescent="0.35">
+      <c r="B14" s="49"/>
       <c r="C14" s="7" t="s">
         <v>91</v>
       </c>
@@ -3687,8 +3687,8 @@
         <v>33672</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="B15" s="48"/>
+    <row r="15" spans="2:6" ht="16.899999999999999" x14ac:dyDescent="0.35">
+      <c r="B15" s="50"/>
       <c r="C15" s="7" t="s">
         <v>89</v>
       </c>
@@ -3702,8 +3702,8 @@
         <v>26558</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="B16" s="46" t="s">
+    <row r="16" spans="2:6" ht="16.899999999999999" x14ac:dyDescent="0.35">
+      <c r="B16" s="48" t="s">
         <v>88</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -3719,8 +3719,8 @@
         <v>36109</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="B17" s="47"/>
+    <row r="17" spans="2:6" ht="16.899999999999999" x14ac:dyDescent="0.35">
+      <c r="B17" s="49"/>
       <c r="C17" s="7" t="s">
         <v>91</v>
       </c>
@@ -3734,8 +3734,8 @@
         <v>42793</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="B18" s="48"/>
+    <row r="18" spans="2:6" ht="16.899999999999999" x14ac:dyDescent="0.35">
+      <c r="B18" s="50"/>
       <c r="C18" s="7" t="s">
         <v>89</v>
       </c>
@@ -3769,11 +3769,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488BB744-4A85-4992-8208-18BB0E9AFAC7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView showGridLines="0" zoomScale="122" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="BQ119" sqref="BQ119:BQ144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3789,7 +3789,7 @@
       <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3805,15 +3805,15 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.3125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>20</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="13.9" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
         <v>23</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="13.9" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>24</v>
       </c>
@@ -3855,8 +3855,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="50" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="54" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="26" t="s">
@@ -3869,8 +3869,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="54"/>
       <c r="B5" s="26" t="s">
         <v>38</v>
       </c>
@@ -3881,8 +3881,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="50"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="54"/>
       <c r="B6" s="26" t="s">
         <v>39</v>
       </c>
@@ -3893,8 +3893,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="50"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="54"/>
       <c r="B7" s="26" t="s">
         <v>40</v>
       </c>
@@ -3905,8 +3905,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="50"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="54"/>
       <c r="B8" s="26" t="s">
         <v>41</v>
       </c>
@@ -3917,8 +3917,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="50"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="54"/>
       <c r="B9" s="26" t="s">
         <v>42</v>
       </c>
@@ -3929,8 +3929,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="54"/>
       <c r="B10" s="26" t="s">
         <v>43</v>
       </c>
@@ -3941,8 +3941,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="50"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="54"/>
       <c r="B11" s="26" t="s">
         <v>44</v>
       </c>
@@ -3953,8 +3953,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="50"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="54"/>
       <c r="B12" s="26" t="s">
         <v>45</v>
       </c>
@@ -3965,8 +3965,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="50"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="54"/>
       <c r="B13" s="26" t="s">
         <v>46</v>
       </c>
@@ -3977,8 +3977,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="50"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="54"/>
       <c r="B14" s="26" t="s">
         <v>47</v>
       </c>
@@ -3989,8 +3989,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="50"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="54"/>
       <c r="B15" s="26" t="s">
         <v>48</v>
       </c>
@@ -4001,8 +4001,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="50" t="s">
+    <row r="16" spans="1:4" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A16" s="54" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="27" t="s">
@@ -4015,8 +4015,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="50"/>
+    <row r="17" spans="1:4" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A17" s="54"/>
       <c r="B17" s="27" t="s">
         <v>3</v>
       </c>
@@ -4027,8 +4027,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="50"/>
+    <row r="18" spans="1:4" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A18" s="54"/>
       <c r="B18" s="27" t="s">
         <v>4</v>
       </c>
@@ -4039,8 +4039,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
+    <row r="19" spans="1:4" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A19" s="54"/>
       <c r="B19" s="27" t="s">
         <v>5</v>
       </c>
@@ -4051,8 +4051,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
+    <row r="20" spans="1:4" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A20" s="54"/>
       <c r="B20" s="27" t="s">
         <v>6</v>
       </c>
@@ -4063,8 +4063,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="50"/>
+    <row r="21" spans="1:4" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A21" s="54"/>
       <c r="B21" s="27" t="s">
         <v>7</v>
       </c>
@@ -4075,8 +4075,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="50" t="s">
+    <row r="22" spans="1:4" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A22" s="54" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -4086,11 +4086,11 @@
         <v>1966.5161290000001</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="50"/>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A23" s="54"/>
       <c r="B23" s="27" t="s">
         <v>9</v>
       </c>
@@ -4098,83 +4098,83 @@
         <v>104038.2258</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="50"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A24" s="54"/>
       <c r="B24" s="27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C24" s="30">
         <v>33747.8992</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A25" s="54"/>
       <c r="B25" s="27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C25" s="30">
         <v>2473.000305</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="50"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A26" s="54"/>
       <c r="B26" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C26" s="30">
         <v>32790.46211</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="50"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A27" s="54"/>
       <c r="B27" s="27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C27" s="30">
         <v>0.96961219200000004</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="50"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A28" s="54"/>
       <c r="B28" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C28" s="30">
         <v>13.64488431</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="50"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A29" s="54"/>
       <c r="B29" s="27" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C29" s="30">
         <v>0.58677162599999999</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="50"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A30" s="54"/>
       <c r="B30" s="27" t="s">
         <v>10</v>
       </c>
@@ -4182,11 +4182,11 @@
         <v>0</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="50"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A31" s="54"/>
       <c r="B31" s="27" t="s">
         <v>11</v>
       </c>
@@ -4194,11 +4194,11 @@
         <v>15.064516129999999</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="50"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A32" s="54"/>
       <c r="B32" s="27" t="s">
         <v>12</v>
       </c>
@@ -4206,11 +4206,11 @@
         <v>2.2580645160000001</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="50"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A33" s="54"/>
       <c r="B33" s="27" t="s">
         <v>13</v>
       </c>
@@ -4218,11 +4218,11 @@
         <v>0.25806451600000002</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="50"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A34" s="54"/>
       <c r="B34" s="27" t="s">
         <v>14</v>
       </c>
@@ -4230,11 +4230,11 @@
         <v>12.548387099999999</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="50"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A35" s="54"/>
       <c r="B35" s="27" t="s">
         <v>15</v>
       </c>
@@ -4242,11 +4242,11 @@
         <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="50"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A36" s="54"/>
       <c r="B36" s="27" t="s">
         <v>16</v>
       </c>
@@ -4254,11 +4254,11 @@
         <v>5</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="50"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A37" s="54"/>
       <c r="B37" s="27" t="s">
         <v>17</v>
       </c>
@@ -4266,11 +4266,11 @@
         <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="50"/>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A38" s="54"/>
       <c r="B38" s="27" t="s">
         <v>18</v>
       </c>
@@ -4278,198 +4278,198 @@
         <v>114.8064516</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="50"/>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A39" s="54"/>
       <c r="B39" s="27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C39" s="30">
         <v>878.5441955</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="50"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A40" s="54"/>
       <c r="B40" s="27" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C40" s="30">
         <v>0</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="50"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A41" s="54"/>
       <c r="B41" s="27" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C41" s="30">
         <v>17435.58065</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="50"/>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A42" s="54"/>
       <c r="B42" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C42" s="30">
         <v>93.903225809999995</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="50"/>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A43" s="54"/>
       <c r="B43" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C43" s="30">
         <v>44985.838710000004</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="50"/>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A44" s="54"/>
       <c r="B44" s="27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C44" s="30">
         <v>300.87096769999999</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="50" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A45" s="54" t="s">
         <v>27</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C45" s="30">
         <v>44772018.060000002</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="50"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A46" s="54"/>
       <c r="B46" s="27" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C46" s="30">
         <v>32959.516130000004</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="50"/>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A47" s="54"/>
       <c r="B47" s="27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C47" s="30">
         <v>0</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="50"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A48" s="54"/>
       <c r="B48" s="27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C48" s="30">
         <v>29798656.940000001</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="50"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A49" s="54"/>
       <c r="B49" s="27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C49" s="32">
         <v>44355311.189999998</v>
       </c>
       <c r="D49" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="50"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A50" s="54"/>
       <c r="B50" s="27" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C50" s="32">
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="50"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A51" s="54"/>
       <c r="B51" s="28" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C51" s="32">
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="50"/>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A52" s="54"/>
       <c r="B52" s="28" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C52" s="32">
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B59" s="2"/>
     </row>
   </sheetData>
@@ -4492,14 +4492,14 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.9140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.9375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.5625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>63</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>67</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>72</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>76</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -4585,172 +4585,172 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C446E34-E2D1-4389-BD49-387EF2EB8011}">
   <dimension ref="B1:L23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.3125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.3125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>123</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="F2" s="1"/>
       <c r="H2" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="58" t="s">
         <v>124</v>
-      </c>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="51" t="s">
-        <v>125</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>63</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E3" s="15">
         <v>2001</v>
       </c>
-      <c r="H3" s="51" t="s">
-        <v>125</v>
+      <c r="H3" s="58" t="s">
+        <v>124</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>63</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K3" s="15">
         <v>2001</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="52"/>
-      <c r="C4" s="54" t="s">
+    <row r="4" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="59"/>
+      <c r="C4" s="55" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E4" s="15">
         <v>2014</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="54" t="s">
+      <c r="H4" s="59"/>
+      <c r="I4" s="55" t="s">
         <v>64</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K4" s="15">
         <v>2014</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="52"/>
-      <c r="C5" s="55"/>
+    <row r="5" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="59"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E5" s="15">
         <v>2016</v>
       </c>
-      <c r="H5" s="52"/>
-      <c r="I5" s="55"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K5" s="15">
         <v>2016</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="53"/>
-      <c r="C6" s="56"/>
+    <row r="6" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="60"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E6" s="15">
         <v>2017</v>
       </c>
-      <c r="H6" s="53"/>
-      <c r="I6" s="56"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="57"/>
       <c r="J6" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K6" s="15">
         <v>2017</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="51" t="s">
+    <row r="7" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="54" t="s">
-        <v>131</v>
-      </c>
       <c r="D7" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E7" s="15">
         <v>2010</v>
       </c>
-      <c r="H7" s="51" t="s">
+      <c r="H7" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="I7" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="I7" s="54" t="s">
-        <v>131</v>
-      </c>
       <c r="J7" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K7" s="15">
         <v>2010</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="52"/>
-      <c r="C8" s="55"/>
+    <row r="8" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="59"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="14" t="s">
         <v>90</v>
       </c>
       <c r="E8" s="15">
         <v>2019</v>
       </c>
-      <c r="H8" s="52"/>
-      <c r="I8" s="55"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="56"/>
       <c r="J8" s="14" t="s">
         <v>90</v>
       </c>
@@ -4758,17 +4758,17 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="52"/>
-      <c r="C9" s="55"/>
+    <row r="9" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="59"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="14" t="s">
         <v>97</v>
       </c>
       <c r="E9" s="15">
         <v>2021</v>
       </c>
-      <c r="H9" s="52"/>
-      <c r="I9" s="55"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="56"/>
       <c r="J9" s="14" t="s">
         <v>97</v>
       </c>
@@ -4776,17 +4776,17 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="52"/>
-      <c r="C10" s="55"/>
+    <row r="10" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="59"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="14" t="s">
         <v>98</v>
       </c>
       <c r="E10" s="15">
         <v>2021</v>
       </c>
-      <c r="H10" s="52"/>
-      <c r="I10" s="55"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="56"/>
       <c r="J10" s="14" t="s">
         <v>98</v>
       </c>
@@ -4794,57 +4794,57 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="52"/>
-      <c r="C11" s="55"/>
+    <row r="11" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="59"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E11" s="15">
         <v>2023</v>
       </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="56"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="57"/>
       <c r="J11" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K11" s="15">
         <v>2023</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="52"/>
-      <c r="C12" s="56"/>
+    <row r="12" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="59"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E12" s="15">
         <v>2023</v>
       </c>
-      <c r="H12" s="52"/>
-      <c r="I12" s="54" t="s">
-        <v>172</v>
+      <c r="H12" s="59"/>
+      <c r="I12" s="55" t="s">
+        <v>170</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K12" s="15">
         <v>2014</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="52"/>
-      <c r="C13" s="54" t="s">
-        <v>134</v>
+    <row r="13" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="59"/>
+      <c r="C13" s="55" t="s">
+        <v>133</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E13" s="15">
         <v>2014</v>
       </c>
-      <c r="H13" s="52"/>
-      <c r="I13" s="55"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="56"/>
       <c r="J13" s="14" t="s">
         <v>95</v>
       </c>
@@ -4852,17 +4852,17 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="52"/>
-      <c r="C14" s="55"/>
+    <row r="14" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="59"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="14" t="s">
         <v>95</v>
       </c>
       <c r="E14" s="15">
         <v>2014</v>
       </c>
-      <c r="H14" s="52"/>
-      <c r="I14" s="55"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="56"/>
       <c r="J14" s="14" t="s">
         <v>92</v>
       </c>
@@ -4870,17 +4870,17 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="52"/>
-      <c r="C15" s="55"/>
+    <row r="15" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="59"/>
+      <c r="C15" s="56"/>
       <c r="D15" s="14" t="s">
         <v>92</v>
       </c>
       <c r="E15" s="15">
         <v>2014</v>
       </c>
-      <c r="H15" s="52"/>
-      <c r="I15" s="55"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="56"/>
       <c r="J15" s="14" t="s">
         <v>100</v>
       </c>
@@ -4888,94 +4888,94 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="52"/>
-      <c r="C16" s="55"/>
+    <row r="16" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="59"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="14" t="s">
         <v>100</v>
       </c>
       <c r="E16" s="15">
         <v>2017</v>
       </c>
-      <c r="H16" s="53"/>
-      <c r="I16" s="56"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="57"/>
       <c r="J16" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K16" s="15">
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="52"/>
-      <c r="C17" s="55"/>
+    <row r="17" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="59"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E17" s="15">
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="52"/>
-      <c r="C18" s="56"/>
+    <row r="18" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="59"/>
+      <c r="C18" s="57"/>
       <c r="D18" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E18" s="15">
         <v>2020</v>
       </c>
       <c r="F18" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="52"/>
-      <c r="C19" s="54" t="s">
-        <v>141</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="59"/>
+      <c r="C19" s="55" t="s">
+        <v>239</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E19" s="15">
         <v>2021</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="52"/>
-      <c r="C20" s="55"/>
+    <row r="20" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="59"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E20" s="15">
         <v>2021</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="52"/>
-      <c r="C21" s="55"/>
+    <row r="21" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="59"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E21" s="15">
         <v>2021</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="52"/>
-      <c r="C22" s="55"/>
+    <row r="22" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="59"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E22" s="15">
         <v>2021</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="53"/>
-      <c r="C23" s="56"/>
+    <row r="23" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="60"/>
+      <c r="C23" s="57"/>
       <c r="D23" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E23" s="15">
         <v>2022</v>
@@ -4983,17 +4983,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H7:H16"/>
+    <mergeCell ref="I7:I11"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="I4:I6"/>
     <mergeCell ref="C19:C23"/>
     <mergeCell ref="B7:B23"/>
     <mergeCell ref="C13:C18"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C7:C12"/>
-    <mergeCell ref="H7:H16"/>
-    <mergeCell ref="I7:I11"/>
-    <mergeCell ref="I12:I16"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="I4:I6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5008,35 +5008,35 @@
       <selection activeCell="L19" sqref="L19:S24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.1640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.1875" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.3125" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.25" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6875" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.1640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.08203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.1875" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.0625" style="19" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.6640625" style="19"/>
+    <col min="11" max="12" width="8.6875" style="19"/>
     <col min="13" max="13" width="12.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.58203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5625" style="19" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" style="19" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.25" style="19" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6640625" style="19"/>
+    <col min="18" max="18" width="8.6875" style="19"/>
     <col min="19" max="19" width="8.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" style="19"/>
+    <col min="20" max="20" width="8.6875" style="19"/>
     <col min="21" max="21" width="8.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.3125" style="19" bestFit="1" customWidth="1"/>
     <col min="23" max="25" width="10" style="19" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="18.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="8.6640625" style="19"/>
+    <col min="26" max="27" width="18.6875" style="19" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.3125" style="19" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.6875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>83</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>84</v>
@@ -5062,7 +5062,7 @@
         <v>87</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L1" s="5" t="str">
         <f>B1</f>
@@ -5073,7 +5073,7 @@
         <v>전체주중주말</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O1" s="5" t="str">
         <f t="shared" ref="O1:O16" si="1">F1</f>
@@ -5101,25 +5101,25 @@
         <v>0</v>
       </c>
       <c r="W1" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="X1" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y1" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="Z1" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="AA1" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="Z1" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA1" s="19" t="s">
-        <v>177</v>
-      </c>
       <c r="AB1" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" s="19">
         <v>2</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>93</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E2" s="19">
         <v>8</v>
@@ -5207,7 +5207,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>91</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E3" s="19">
         <v>8</v>
@@ -5292,7 +5292,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" s="19">
         <v>2</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>89</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E4" s="19">
         <v>8</v>
@@ -5377,7 +5377,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" s="19">
         <v>2</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>93</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E5" s="19">
         <v>8</v>
@@ -5462,7 +5462,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" s="19">
         <v>3</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>91</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E6" s="19">
         <v>20</v>
@@ -5547,7 +5547,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" s="19">
         <v>2</v>
       </c>
@@ -5558,13 +5558,13 @@
         <v>89</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E7" s="19">
         <v>8</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G7" s="19">
         <v>8.9999999999999998E-4</v>
@@ -5632,7 +5632,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" s="19">
         <v>3</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>93</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E8" s="19">
         <v>20</v>
@@ -5720,7 +5720,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" s="19">
         <v>2</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>91</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E9" s="19">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" s="19">
         <v>2</v>
       </c>
@@ -5816,13 +5816,13 @@
         <v>89</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E10" s="19">
         <v>8</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G10" s="19">
         <v>1.1000000000000001E-3</v>
@@ -5890,7 +5890,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" s="19">
         <v>2</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>93</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E11" s="19">
         <v>8</v>
@@ -5975,7 +5975,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="19">
         <v>2</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>91</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E12" s="19">
         <v>8</v>
@@ -6057,10 +6057,10 @@
         <v>-2.0807000000000002</v>
       </c>
       <c r="AB12" s="19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" s="19">
         <v>3</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>89</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E13" s="19">
         <v>20</v>
@@ -6142,10 +6142,10 @@
         <v>4.9067999999999996</v>
       </c>
       <c r="AB13" s="19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" s="19">
         <v>3</v>
       </c>
@@ -6156,13 +6156,13 @@
         <v>93</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E14" s="19">
         <v>20</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G14" s="19">
         <v>8.0000000000000004E-4</v>
@@ -6233,7 +6233,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" s="19">
         <v>3</v>
       </c>
@@ -6244,13 +6244,13 @@
         <v>91</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E15" s="19">
         <v>20</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G15" s="19">
         <v>2.0000000000000001E-4</v>
@@ -6318,7 +6318,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" s="19">
         <v>2</v>
       </c>
@@ -6329,13 +6329,13 @@
         <v>89</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E16" s="19">
         <v>8</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G16" s="19">
         <v>5.1000000000000004E-3</v>
@@ -6403,7 +6403,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="12:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="12:28" x14ac:dyDescent="0.35">
       <c r="V17" s="19" t="s">
         <v>91</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="12:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="12:28" x14ac:dyDescent="0.35">
       <c r="V18" s="19" t="s">
         <v>89</v>
       </c>
@@ -6446,10 +6446,10 @@
         <v>1.7496</v>
       </c>
       <c r="AB18" s="19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="12:28" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="12:28" x14ac:dyDescent="0.35">
       <c r="L19" s="5" t="s">
         <v>1</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O19" s="5" t="s">
         <v>84</v>
@@ -6493,10 +6493,10 @@
         <v>7.2884000000000002</v>
       </c>
       <c r="AB19" s="19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="12:28" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="12:28" x14ac:dyDescent="0.35">
       <c r="L20" s="7" t="s">
         <v>101</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="12:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="12:28" x14ac:dyDescent="0.35">
       <c r="L21" s="7" t="s">
         <v>99</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="12:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="12:28" x14ac:dyDescent="0.35">
       <c r="L22" s="7" t="s">
         <v>96</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="12:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="12:28" x14ac:dyDescent="0.35">
       <c r="L23" s="7" t="s">
         <v>94</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="12:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="12:28" x14ac:dyDescent="0.35">
       <c r="L24" s="7" t="s">
         <v>88</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>20</v>
       </c>
       <c r="O24" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P24" s="17">
         <v>8.0000000000000004E-4</v>
@@ -6734,7 +6734,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="12:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="12:28" x14ac:dyDescent="0.35">
       <c r="V25" s="19" t="s">
         <v>89</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="12:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="12:28" x14ac:dyDescent="0.35">
       <c r="U26" s="19" t="s">
         <v>88</v>
       </c>
@@ -6780,10 +6780,10 @@
         <v>-4.0834000000000001</v>
       </c>
       <c r="AB26" s="19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="12:28" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="12:28" x14ac:dyDescent="0.35">
       <c r="V27" s="19" t="s">
         <v>93</v>
       </c>
@@ -6803,10 +6803,10 @@
         <v>0.63859999999999995</v>
       </c>
       <c r="AB27" s="19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" spans="12:28" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="12:28" x14ac:dyDescent="0.35">
       <c r="V28" s="19" t="s">
         <v>91</v>
       </c>
@@ -6826,10 +6826,10 @@
         <v>-9.5329999999999995</v>
       </c>
       <c r="AB28" s="19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="12:28" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="12:28" x14ac:dyDescent="0.35">
       <c r="V29" s="19" t="s">
         <v>91</v>
       </c>
@@ -6849,10 +6849,10 @@
         <v>-5.6224999999999996</v>
       </c>
       <c r="AB29" s="19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="12:28" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="12:28" x14ac:dyDescent="0.35">
       <c r="V30" s="19" t="s">
         <v>89</v>
       </c>
@@ -6872,10 +6872,10 @@
         <v>-12.2522</v>
       </c>
       <c r="AB30" s="19" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="12:28" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="12:28" x14ac:dyDescent="0.35">
       <c r="V31" s="19" t="s">
         <v>89</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>-8.9572000000000003</v>
       </c>
       <c r="AB31" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
